--- a/BeerTaste.xlsx
+++ b/BeerTaste.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\s\aklefdal\beertaste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9DAFC1-0130-4065-A365-3C456C8410FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F875EDF2-87C4-4FE8-8504-B977C6ADE28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{BC7F52BA-51F1-4635-A5AB-EB1BCFC6D5AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{BC7F52BA-51F1-4635-A5AB-EB1BCFC6D5AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Beers" sheetId="1" r:id="rId1"/>
     <sheet name="Tasters" sheetId="2" r:id="rId2"/>
+    <sheet name="TastersSchema" sheetId="3" r:id="rId3"/>
+    <sheet name="TastersSchema 2025-11-10 104844" sheetId="4" r:id="rId7"/>
+    <sheet name="ScoreSchema 2025-11-10 104844" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,9 +40,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
-  <si>
-    <t>Tasters</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>Nr</t>
   </si>
   <si>
     <t>Artikkelnavn</t>
@@ -171,19 +174,113 @@
     <t>Øl, Klosterstil</t>
   </si>
   <si>
-    <t>Nr</t>
+    <t>Navn</t>
+  </si>
+  <si>
+    <t>Epost</t>
+  </si>
+  <si>
+    <t>Fødselsår</t>
+  </si>
+  <si>
+    <t>Alf Kåre</t>
+  </si>
+  <si>
+    <t>alf.kare.lefdal@aurum.no</t>
+  </si>
+  <si>
+    <t>Espen</t>
+  </si>
+  <si>
+    <t>espen.aune.olsen@aurum.no</t>
+  </si>
+  <si>
+    <t>Anders L.</t>
+  </si>
+  <si>
+    <t>anders.langberget@aurum.no</t>
+  </si>
+  <si>
+    <t>Arve</t>
+  </si>
+  <si>
+    <t>arve.systad@aurum.no</t>
+  </si>
+  <si>
+    <t>Anders J. H.</t>
+  </si>
+  <si>
+    <t>anders.holmefjord@aurum.no</t>
+  </si>
+  <si>
+    <t>Aanund</t>
+  </si>
+  <si>
+    <t>aanund.austrheim@aurum.no</t>
+  </si>
+  <si>
+    <t>Stian H.</t>
+  </si>
+  <si>
+    <t>stian.haga@aurum.no</t>
+  </si>
+  <si>
+    <t>Harald</t>
+  </si>
+  <si>
+    <t>harald.schult.ulriksen@aurum.no</t>
+  </si>
+  <si>
+    <t>Ståle</t>
+  </si>
+  <si>
+    <t>staale.stromme@aurum.no</t>
+  </si>
+  <si>
+    <t>Joachim</t>
+  </si>
+  <si>
+    <t>joachim.seilen@aurum.no</t>
+  </si>
+  <si>
+    <t>Yngve</t>
+  </si>
+  <si>
+    <t>yngve.bakken.nilsen@aurum.no</t>
+  </si>
+  <si>
+    <t>Navn:</t>
+  </si>
+  <si>
+    <t>Øl</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Score 0 - 10</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Producer</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +303,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -215,7 +327,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -223,19 +335,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -573,24 +772,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D789AC-ECF6-463A-9F34-BF46F554F215}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="35.42578125" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="13.5" customHeight="1" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -617,20 +816,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" ht="13.5" customHeight="1">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1">
@@ -642,24 +841,24 @@
       <c r="H2" s="3">
         <v>59.9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" ht="13.5" customHeight="1">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1">
@@ -671,24 +870,24 @@
       <c r="H3" s="3">
         <v>109.9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" ht="13.5" customHeight="1">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="1">
@@ -700,24 +899,24 @@
       <c r="H4" s="3">
         <v>41.9</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" ht="13.5" customHeight="1">
+      <c r="A5" s="0">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="1">
@@ -729,24 +928,24 @@
       <c r="H5" s="3">
         <v>39.9</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" ht="13.5" customHeight="1">
+      <c r="A6" s="0">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="1">
@@ -758,24 +957,24 @@
       <c r="H6" s="3">
         <v>119.9</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" ht="13.5" customHeight="1">
+      <c r="A7" s="0">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="1">
@@ -785,26 +984,26 @@
         <v>0.5</v>
       </c>
       <c r="H7" s="3">
-        <v>81.900000000000006</v>
-      </c>
-      <c r="I7" t="s">
+        <v>81.9</v>
+      </c>
+      <c r="I7" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" ht="13.5" customHeight="1">
+      <c r="A8" s="0">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="1">
@@ -816,24 +1015,24 @@
       <c r="H8" s="3">
         <v>57.9</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" ht="13.5" customHeight="1">
+      <c r="A9" s="0">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="0" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="1">
@@ -845,24 +1044,24 @@
       <c r="H9" s="3">
         <v>86.9</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" ht="13.5" customHeight="1">
+      <c r="A10" s="0">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="0" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="1">
@@ -874,24 +1073,24 @@
       <c r="H10" s="3">
         <v>125.9</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" ht="13.5" customHeight="1">
+      <c r="A11" s="0">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="1">
@@ -901,26 +1100,26 @@
         <v>0.5</v>
       </c>
       <c r="H11" s="3">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="I11" t="s">
+        <v>72.9</v>
+      </c>
+      <c r="I11" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" ht="13.5" customHeight="1">
+      <c r="A12" s="0">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="0" t="s">
         <v>41</v>
       </c>
       <c r="F12" s="1">
@@ -932,24 +1131,24 @@
       <c r="H12" s="3">
         <v>49.9</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" ht="13.5" customHeight="1">
+      <c r="A13" s="0">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="0" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="1">
@@ -961,30 +1160,737 @@
       <c r="H13" s="3">
         <v>134.9</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="0" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6295EB-4F56-4FE0-8965-9FF25FB9A6DB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="0">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="0">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="0">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="0">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="0">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="0">
+        <v>1980</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D828F7-7105-4C18-BD28-C0D8DD098602}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1" style="6"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="46.5">
+      <c r="A1" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" ht="73.5" customHeight="1" s="7" customFormat="1">
+      <c r="A3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="57" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0959CEF-C29C-440C-831B-465D167F6DED}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1" style="6"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="46.5">
+      <c r="A1" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" ht="73.5" customHeight="1">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" ht="73.5" customHeight="1">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" ht="73.5" customHeight="1">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="9">
+        <v>6.3</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" ht="73.5" customHeight="1">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" ht="73.5" customHeight="1">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" ht="73.5" customHeight="1">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="9">
+        <v>7</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" ht="73.5" customHeight="1">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="9">
+        <v>7</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" ht="73.5" customHeight="1">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="9">
+        <v>7</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" ht="73.5" customHeight="1">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" ht="73.5" customHeight="1">
+      <c r="A12" s="12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="9">
+        <v>8</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="9">
+        <v>9</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" ht="73.5" customHeight="1">
+      <c r="A14" s="12">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="57" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr ">
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="19"/>
+    <col min="2" max="2" width="9.140625" customWidth="1" style="19"/>
+    <col min="3" max="3" width="9.140625" customWidth="1" style="19"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" s="19" customFormat="1">
+      <c r="A1" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
+</file>
+
+<file path=EPPlusLicense.txt>This workbook was created with the EPPlus library, licensed to Alf K&#229;re Lefdal under the Polyform Noncommercial license, see https://polyformproject.org/licenses/noncommercial/1.0.0
+For more information about EPPlus, see https://epplussoftware.com/
+
 </file>